--- a/question/management/commands/questions.xlsx
+++ b/question/management/commands/questions.xlsx
@@ -20,236 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="61">
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">每个明星顺序出三张，如第一次出现杉原杏璃，用杉原杏璃</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">到</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">第二次用</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4-6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">注意可能会有数字缺文件，如尺度过大、比例不符被删掉，请支持检测跳过功能，如第二次 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">、</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">时，如</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">缺失文件，出</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 6 7</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，末尾不足时循环</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">错误答案从备选里随机出</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">题目顺序希望可以编辑调整，第一遍和</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">相同，后续会调整对应关系</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="57">
   <si>
     <t xml:space="preserve">题目顺序</t>
   </si>
@@ -571,164 +342,204 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA185"/>
+  <dimension ref="A1:AA181"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7264150943396"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9764150943396"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.9575471698113"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.10849056603774"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3490566037736"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.6037735849057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2075471698113"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.48584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -754,22 +565,22 @@
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -795,22 +606,22 @@
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -836,22 +647,22 @@
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -877,22 +688,22 @@
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -918,22 +729,22 @@
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -959,22 +770,22 @@
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1000,22 +811,22 @@
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1041,22 +852,22 @@
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1082,22 +893,22 @@
     </row>
     <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1123,22 +934,22 @@
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1164,22 +975,22 @@
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1205,10 +1016,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>1</v>
@@ -1217,10 +1028,10 @@
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1246,22 +1057,22 @@
     </row>
     <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1287,22 +1098,22 @@
     </row>
     <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1328,22 +1139,22 @@
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1369,22 +1180,22 @@
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1410,22 +1221,22 @@
     </row>
     <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1451,22 +1262,22 @@
     </row>
     <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1492,22 +1303,22 @@
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1533,22 +1344,22 @@
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1574,22 +1385,22 @@
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1615,22 +1426,22 @@
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>44</v>
+      <c r="D27" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1656,22 +1467,22 @@
     </row>
     <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1697,22 +1508,22 @@
     </row>
     <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1738,22 +1549,22 @@
     </row>
     <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1779,22 +1590,22 @@
     </row>
     <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1820,22 +1631,22 @@
     </row>
     <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1861,22 +1672,22 @@
     </row>
     <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1902,22 +1713,22 @@
     </row>
     <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1943,22 +1754,22 @@
     </row>
     <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1984,22 +1795,22 @@
     </row>
     <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2025,22 +1836,22 @@
     </row>
     <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -2066,22 +1877,23 @@
     </row>
     <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>12</v>
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f aca="false">VLOOKUP(D38,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -2107,22 +1919,23 @@
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>15</v>
+      <c r="D39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f aca="false">VLOOKUP(D39,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2148,22 +1961,23 @@
     </row>
     <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
+      <c r="D40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f aca="false">VLOOKUP(D40,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2189,22 +2003,23 @@
     </row>
     <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="D41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f aca="false">VLOOKUP(D41,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2230,22 +2045,22 @@
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f aca="false">VLOOKUP(D42,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D42,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G42" s="3"/>
@@ -2272,23 +2087,23 @@
     </row>
     <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f aca="false">VLOOKUP(D43,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D43,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2314,23 +2129,23 @@
     </row>
     <row r="44" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f aca="false">VLOOKUP(D44,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D44,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2356,22 +2171,22 @@
     </row>
     <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f aca="false">VLOOKUP(D45,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D45,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G45" s="3"/>
@@ -2398,22 +2213,22 @@
     </row>
     <row r="46" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f aca="false">VLOOKUP(D46,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D46,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G46" s="3"/>
@@ -2440,23 +2255,23 @@
     </row>
     <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f aca="false">VLOOKUP(D47,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D47,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2482,23 +2297,23 @@
     </row>
     <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f aca="false">VLOOKUP(D48,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D48,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2524,22 +2339,22 @@
     </row>
     <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E49" s="6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f aca="false">VLOOKUP(D49,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D49,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G49" s="3"/>
@@ -2566,22 +2381,22 @@
     </row>
     <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f aca="false">VLOOKUP(D50,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D50,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G50" s="3"/>
@@ -2608,22 +2423,22 @@
     </row>
     <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f aca="false">VLOOKUP(D51,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D51,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G51" s="3"/>
@@ -2650,23 +2465,23 @@
     </row>
     <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f aca="false">VLOOKUP(D52,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D52,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2692,23 +2507,23 @@
     </row>
     <row r="53" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f aca="false">VLOOKUP(D53,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D53,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2734,22 +2549,22 @@
     </row>
     <row r="54" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f aca="false">VLOOKUP(D54,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D54,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G54" s="3"/>
@@ -2776,22 +2591,22 @@
     </row>
     <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f aca="false">VLOOKUP(D55,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D55,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G55" s="3"/>
@@ -2818,22 +2633,22 @@
     </row>
     <row r="56" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f aca="false">VLOOKUP(D56,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D56,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G56" s="3"/>
@@ -2860,23 +2675,23 @@
     </row>
     <row r="57" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f aca="false">VLOOKUP(D57,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D57,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2902,23 +2717,23 @@
     </row>
     <row r="58" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f aca="false">VLOOKUP(D58,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D58,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2944,22 +2759,22 @@
     </row>
     <row r="59" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f aca="false">VLOOKUP(D59,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D59,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G59" s="3"/>
@@ -2986,22 +2801,22 @@
     </row>
     <row r="60" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E60" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f aca="false">VLOOKUP(D60,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D60,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G60" s="3"/>
@@ -3028,23 +2843,23 @@
     </row>
     <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f aca="false">VLOOKUP(D61,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D61,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -3070,22 +2885,22 @@
     </row>
     <row r="62" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f aca="false">VLOOKUP(D62,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D62,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G62" s="3"/>
@@ -3112,22 +2927,22 @@
     </row>
     <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f aca="false">VLOOKUP(D63,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D63,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G63" s="3"/>
@@ -3154,22 +2969,22 @@
     </row>
     <row r="64" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f aca="false">VLOOKUP(D64,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D64,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G64" s="3"/>
@@ -3196,23 +3011,23 @@
     </row>
     <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f aca="false">VLOOKUP(D65,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D65,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -3238,22 +3053,22 @@
     </row>
     <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f aca="false">VLOOKUP(D66,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D66,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G66" s="3"/>
@@ -3280,22 +3095,22 @@
     </row>
     <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f aca="false">VLOOKUP(D67,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D67,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G67" s="3"/>
@@ -3322,22 +3137,22 @@
     </row>
     <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f aca="false">VLOOKUP(D68,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D68,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G68" s="3"/>
@@ -3364,22 +3179,22 @@
     </row>
     <row r="69" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f aca="false">VLOOKUP(D69,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D69,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G69" s="3"/>
@@ -3406,22 +3221,22 @@
     </row>
     <row r="70" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f aca="false">VLOOKUP(D70,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D70,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G70" s="3"/>
@@ -3448,23 +3263,23 @@
     </row>
     <row r="71" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f aca="false">VLOOKUP(D71,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D71,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -3490,23 +3305,23 @@
     </row>
     <row r="72" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f aca="false">VLOOKUP(D72,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D72,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -3532,22 +3347,22 @@
     </row>
     <row r="73" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f aca="false">VLOOKUP(D73,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D73,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G73" s="3"/>
@@ -3574,22 +3389,22 @@
     </row>
     <row r="74" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f aca="false">VLOOKUP(D74,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D74,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G74" s="3"/>
@@ -3616,23 +3431,23 @@
     </row>
     <row r="75" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f aca="false">VLOOKUP(D75,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D75,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -3658,22 +3473,22 @@
     </row>
     <row r="76" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f aca="false">VLOOKUP(D76,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D76,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G76" s="3"/>
@@ -3700,22 +3515,22 @@
     </row>
     <row r="77" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f aca="false">VLOOKUP(D77,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D77,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G77" s="3"/>
@@ -3742,22 +3557,22 @@
     </row>
     <row r="78" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f aca="false">VLOOKUP(D78,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D78,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G78" s="3"/>
@@ -3784,22 +3599,22 @@
     </row>
     <row r="79" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f aca="false">VLOOKUP(D79,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D79,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G79" s="3"/>
@@ -3826,23 +3641,23 @@
     </row>
     <row r="80" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f aca="false">VLOOKUP(D80,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D80,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -3868,23 +3683,23 @@
     </row>
     <row r="81" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f aca="false">VLOOKUP(D81,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D81,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -3910,22 +3725,22 @@
     </row>
     <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f aca="false">VLOOKUP(D82,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D82,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G82" s="3"/>
@@ -3952,22 +3767,22 @@
     </row>
     <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f aca="false">VLOOKUP(D83,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D83,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G83" s="3"/>
@@ -3994,22 +3809,22 @@
     </row>
     <row r="84" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f aca="false">VLOOKUP(D84,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D84,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G84" s="3"/>
@@ -4036,23 +3851,23 @@
     </row>
     <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f aca="false">VLOOKUP(D85,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D85,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -4078,23 +3893,23 @@
     </row>
     <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f aca="false">VLOOKUP(D86,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D86,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -4120,23 +3935,23 @@
     </row>
     <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f aca="false">VLOOKUP(D87,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D87,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -4162,22 +3977,22 @@
     </row>
     <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f aca="false">VLOOKUP(D88,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D88,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G88" s="3"/>
@@ -4204,23 +4019,23 @@
     </row>
     <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f aca="false">VLOOKUP(D89,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D89,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -4246,22 +4061,22 @@
     </row>
     <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f aca="false">VLOOKUP(D90,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D90,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G90" s="3"/>
@@ -4288,23 +4103,23 @@
     </row>
     <row r="91" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f aca="false">VLOOKUP(D91,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D91,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -4330,23 +4145,23 @@
     </row>
     <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f aca="false">VLOOKUP(D92,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D92,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -4372,23 +4187,23 @@
     </row>
     <row r="93" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f aca="false">VLOOKUP(D93,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D93,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -4414,22 +4229,22 @@
     </row>
     <row r="94" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f aca="false">VLOOKUP(D94,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D94,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G94" s="3"/>
@@ -4456,22 +4271,22 @@
     </row>
     <row r="95" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f aca="false">VLOOKUP(D95,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D95,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G95" s="3"/>
@@ -4498,22 +4313,22 @@
     </row>
     <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f aca="false">VLOOKUP(D96,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D96,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G96" s="3"/>
@@ -4540,23 +4355,23 @@
     </row>
     <row r="97" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f aca="false">VLOOKUP(D97,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D97,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -4582,23 +4397,23 @@
     </row>
     <row r="98" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f aca="false">VLOOKUP(D98,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D98,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -4624,23 +4439,23 @@
     </row>
     <row r="99" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f aca="false">VLOOKUP(D99,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D99,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -4666,23 +4481,23 @@
     </row>
     <row r="100" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f aca="false">VLOOKUP(D100,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D100,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -4708,23 +4523,23 @@
     </row>
     <row r="101" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f aca="false">VLOOKUP(D101,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D101,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -4750,22 +4565,22 @@
     </row>
     <row r="102" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f aca="false">VLOOKUP(D102,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D102,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G102" s="3"/>
@@ -4792,23 +4607,23 @@
     </row>
     <row r="103" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f aca="false">VLOOKUP(D103,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D103,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -4834,23 +4649,23 @@
     </row>
     <row r="104" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f aca="false">VLOOKUP(D104,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D104,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -4876,22 +4691,22 @@
     </row>
     <row r="105" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f aca="false">VLOOKUP(D105,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D105,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G105" s="3"/>
@@ -4918,22 +4733,22 @@
     </row>
     <row r="106" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f aca="false">VLOOKUP(D106,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D106,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G106" s="3"/>
@@ -4960,22 +4775,22 @@
     </row>
     <row r="107" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f aca="false">VLOOKUP(D107,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D107,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G107" s="3"/>
@@ -5002,23 +4817,23 @@
     </row>
     <row r="108" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f aca="false">VLOOKUP(D108,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D108,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -5044,22 +4859,22 @@
     </row>
     <row r="109" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f aca="false">VLOOKUP(D109,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D109,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G109" s="3"/>
@@ -5086,22 +4901,22 @@
     </row>
     <row r="110" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f aca="false">VLOOKUP(D110,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D110,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G110" s="3"/>
@@ -5128,22 +4943,22 @@
     </row>
     <row r="111" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f aca="false">VLOOKUP(D111,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D111,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G111" s="3"/>
@@ -5170,22 +4985,22 @@
     </row>
     <row r="112" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f aca="false">VLOOKUP(D112,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D112,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G112" s="3"/>
@@ -5212,22 +5027,22 @@
     </row>
     <row r="113" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f aca="false">VLOOKUP(D113,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D113,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G113" s="3"/>
@@ -5254,23 +5069,23 @@
     </row>
     <row r="114" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f aca="false">VLOOKUP(D114,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D114,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -5296,23 +5111,23 @@
     </row>
     <row r="115" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f aca="false">VLOOKUP(D115,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D115,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -5338,22 +5153,22 @@
     </row>
     <row r="116" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f aca="false">VLOOKUP(D116,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D116,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G116" s="3"/>
@@ -5380,22 +5195,22 @@
     </row>
     <row r="117" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f aca="false">VLOOKUP(D117,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D117,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G117" s="3"/>
@@ -5422,23 +5237,23 @@
     </row>
     <row r="118" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f aca="false">VLOOKUP(D118,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D118,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -5464,10 +5279,10 @@
     </row>
     <row r="119" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>1</v>
@@ -5476,10 +5291,10 @@
         <v>14</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f aca="false">VLOOKUP(D119,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D119,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G119" s="3"/>
@@ -5506,22 +5321,22 @@
     </row>
     <row r="120" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F120" s="1" t="str">
-        <f aca="false">VLOOKUP(D120,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D120,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G120" s="3"/>
@@ -5548,22 +5363,22 @@
     </row>
     <row r="121" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F121" s="1" t="str">
-        <f aca="false">VLOOKUP(D121,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D121,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G121" s="3"/>
@@ -5590,22 +5405,22 @@
     </row>
     <row r="122" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F122" s="1" t="str">
-        <f aca="false">VLOOKUP(D122,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D122,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G122" s="3"/>
@@ -5632,22 +5447,22 @@
     </row>
     <row r="123" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F123" s="1" t="str">
-        <f aca="false">VLOOKUP(D123,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D123,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G123" s="3"/>
@@ -5674,22 +5489,22 @@
     </row>
     <row r="124" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F124" s="1" t="str">
-        <f aca="false">VLOOKUP(D124,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D124,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G124" s="3"/>
@@ -5716,23 +5531,23 @@
     </row>
     <row r="125" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F125" s="1" t="str">
-        <f aca="false">VLOOKUP(D125,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D125,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -5758,22 +5573,22 @@
     </row>
     <row r="126" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F126" s="1" t="str">
-        <f aca="false">VLOOKUP(D126,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D126,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G126" s="3"/>
@@ -5800,23 +5615,23 @@
     </row>
     <row r="127" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F127" s="1" t="str">
-        <f aca="false">VLOOKUP(D127,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D127,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -5842,23 +5657,23 @@
     </row>
     <row r="128" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F128" s="1" t="str">
-        <f aca="false">VLOOKUP(D128,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D128,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -5884,23 +5699,23 @@
     </row>
     <row r="129" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F129" s="1" t="str">
-        <f aca="false">VLOOKUP(D129,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D129,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -5926,22 +5741,22 @@
     </row>
     <row r="130" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f aca="false">VLOOKUP(D130,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D130,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G130" s="3"/>
@@ -5968,22 +5783,22 @@
     </row>
     <row r="131" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f aca="false">VLOOKUP(D131,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D131,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G131" s="3"/>
@@ -6010,23 +5825,23 @@
     </row>
     <row r="132" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D132" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="F132" s="1" t="str">
-        <f aca="false">VLOOKUP(D132,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D132,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -6052,22 +5867,22 @@
     </row>
     <row r="133" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D133" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="F133" s="1" t="str">
-        <f aca="false">VLOOKUP(D133,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D133,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G133" s="3"/>
@@ -6094,23 +5909,23 @@
     </row>
     <row r="134" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F134" s="1" t="str">
-        <f aca="false">VLOOKUP(D134,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D134,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -6136,23 +5951,23 @@
     </row>
     <row r="135" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F135" s="1" t="str">
-        <f aca="false">VLOOKUP(D135,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D135,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -6178,22 +5993,22 @@
     </row>
     <row r="136" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F136" s="1" t="str">
-        <f aca="false">VLOOKUP(D136,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D136,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G136" s="3"/>
@@ -6220,22 +6035,22 @@
     </row>
     <row r="137" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F137" s="1" t="str">
-        <f aca="false">VLOOKUP(D137,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D137,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G137" s="3"/>
@@ -6262,22 +6077,22 @@
     </row>
     <row r="138" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F138" s="1" t="str">
-        <f aca="false">VLOOKUP(D138,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D138,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G138" s="3"/>
@@ -6304,22 +6119,22 @@
     </row>
     <row r="139" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f aca="false">VLOOKUP(D139,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D139,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G139" s="3"/>
@@ -6346,22 +6161,22 @@
     </row>
     <row r="140" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f aca="false">VLOOKUP(D140,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D140,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G140" s="3"/>
@@ -6388,22 +6203,22 @@
     </row>
     <row r="141" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f aca="false">VLOOKUP(D141,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D141,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G141" s="3"/>
@@ -6430,23 +6245,23 @@
     </row>
     <row r="142" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F142" s="1" t="str">
-        <f aca="false">VLOOKUP(D142,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D142,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -6472,23 +6287,23 @@
     </row>
     <row r="143" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F143" s="1" t="str">
-        <f aca="false">VLOOKUP(D143,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D143,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -6514,23 +6329,23 @@
     </row>
     <row r="144" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F144" s="1" t="str">
-        <f aca="false">VLOOKUP(D144,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D144,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -6556,23 +6371,23 @@
     </row>
     <row r="145" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F145" s="1" t="str">
-        <f aca="false">VLOOKUP(D145,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D145,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -6598,23 +6413,23 @@
     </row>
     <row r="146" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F146" s="1" t="str">
-        <f aca="false">VLOOKUP(D146,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D146,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -6640,22 +6455,22 @@
     </row>
     <row r="147" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F147" s="1" t="str">
-        <f aca="false">VLOOKUP(D147,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D147,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G147" s="3"/>
@@ -6682,23 +6497,23 @@
     </row>
     <row r="148" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F148" s="1" t="str">
-        <f aca="false">VLOOKUP(D148,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D148,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -6724,22 +6539,22 @@
     </row>
     <row r="149" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F149" s="1" t="str">
-        <f aca="false">VLOOKUP(D149,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D149,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G149" s="3"/>
@@ -6766,22 +6581,22 @@
     </row>
     <row r="150" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F150" s="1" t="str">
-        <f aca="false">VLOOKUP(D150,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D150,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G150" s="3"/>
@@ -6808,23 +6623,23 @@
     </row>
     <row r="151" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F151" s="1" t="str">
-        <f aca="false">VLOOKUP(D151,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D151,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -6850,22 +6665,22 @@
     </row>
     <row r="152" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F152" s="1" t="str">
-        <f aca="false">VLOOKUP(D152,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D152,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G152" s="3"/>
@@ -6892,23 +6707,23 @@
     </row>
     <row r="153" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F153" s="1" t="str">
-        <f aca="false">VLOOKUP(D153,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D153,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -6934,23 +6749,23 @@
     </row>
     <row r="154" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F154" s="1" t="str">
-        <f aca="false">VLOOKUP(D154,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D154,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -6976,23 +6791,23 @@
     </row>
     <row r="155" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F155" s="1" t="str">
-        <f aca="false">VLOOKUP(D155,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D155,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -7018,22 +6833,22 @@
     </row>
     <row r="156" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F156" s="1" t="str">
-        <f aca="false">VLOOKUP(D156,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D156,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G156" s="3"/>
@@ -7060,22 +6875,22 @@
     </row>
     <row r="157" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F157" s="1" t="str">
-        <f aca="false">VLOOKUP(D157,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D157,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G157" s="3"/>
@@ -7102,23 +6917,23 @@
     </row>
     <row r="158" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F158" s="1" t="str">
-        <f aca="false">VLOOKUP(D158,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D158,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -7144,23 +6959,23 @@
     </row>
     <row r="159" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F159" s="1" t="str">
-        <f aca="false">VLOOKUP(D159,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D159,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -7186,22 +7001,22 @@
     </row>
     <row r="160" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F160" s="1" t="str">
-        <f aca="false">VLOOKUP(D160,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D160,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G160" s="3"/>
@@ -7228,22 +7043,22 @@
     </row>
     <row r="161" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F161" s="1" t="str">
-        <f aca="false">VLOOKUP(D161,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D161,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G161" s="3"/>
@@ -7270,22 +7085,22 @@
     </row>
     <row r="162" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F162" s="1" t="str">
-        <f aca="false">VLOOKUP(D162,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D162,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G162" s="3"/>
@@ -7312,23 +7127,23 @@
     </row>
     <row r="163" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F163" s="1" t="str">
-        <f aca="false">VLOOKUP(D163,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D163,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -7354,10 +7169,10 @@
     </row>
     <row r="164" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>1</v>
@@ -7366,10 +7181,10 @@
         <v>50</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F164" s="1" t="str">
-        <f aca="false">VLOOKUP(D164,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D164,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G164" s="3"/>
@@ -7396,23 +7211,23 @@
     </row>
     <row r="165" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F165" s="1" t="str">
-        <f aca="false">VLOOKUP(D165,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D165,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -7438,23 +7253,23 @@
     </row>
     <row r="166" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F166" s="1" t="str">
-        <f aca="false">VLOOKUP(D166,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D166,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -7480,22 +7295,22 @@
     </row>
     <row r="167" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F167" s="1" t="str">
-        <f aca="false">VLOOKUP(D167,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D167,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G167" s="3"/>
@@ -7522,22 +7337,22 @@
     </row>
     <row r="168" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F168" s="1" t="str">
-        <f aca="false">VLOOKUP(D168,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D168,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G168" s="3"/>
@@ -7564,23 +7379,23 @@
     </row>
     <row r="169" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F169" s="1" t="str">
-        <f aca="false">VLOOKUP(D169,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D169,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -7606,22 +7421,22 @@
     </row>
     <row r="170" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F170" s="1" t="str">
-        <f aca="false">VLOOKUP(D170,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D170,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G170" s="3"/>
@@ -7648,23 +7463,23 @@
     </row>
     <row r="171" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F171" s="1" t="str">
-        <f aca="false">VLOOKUP(D171,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D171,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -7690,22 +7505,22 @@
     </row>
     <row r="172" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F172" s="1" t="str">
-        <f aca="false">VLOOKUP(D172,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D172,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G172" s="3"/>
@@ -7732,22 +7547,22 @@
     </row>
     <row r="173" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F173" s="1" t="str">
-        <f aca="false">VLOOKUP(D173,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D173,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G173" s="3"/>
@@ -7774,23 +7589,23 @@
     </row>
     <row r="174" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F174" s="1" t="str">
-        <f aca="false">VLOOKUP(D174,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D174,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -7816,23 +7631,23 @@
     </row>
     <row r="175" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F175" s="1" t="str">
-        <f aca="false">VLOOKUP(D175,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D175,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -7858,22 +7673,22 @@
     </row>
     <row r="176" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C176" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F176" s="1" t="str">
-        <f aca="false">VLOOKUP(D176,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D176,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G176" s="3"/>
@@ -7900,23 +7715,23 @@
     </row>
     <row r="177" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F177" s="1" t="str">
-        <f aca="false">VLOOKUP(D177,D$6:F$41,3,0)</f>
-        <v>外</v>
+        <f aca="false">VLOOKUP(D177,D$2:F$37,3,0)</f>
+        <v>中</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -7942,22 +7757,22 @@
     </row>
     <row r="178" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C178" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F178" s="1" t="str">
-        <f aca="false">VLOOKUP(D178,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D178,D$2:F$37,3,0)</f>
         <v>中</v>
       </c>
       <c r="G178" s="3"/>
@@ -7984,22 +7799,22 @@
     </row>
     <row r="179" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F179" s="1" t="str">
-        <f aca="false">VLOOKUP(D179,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D179,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G179" s="3"/>
@@ -8026,22 +7841,22 @@
     </row>
     <row r="180" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F180" s="1" t="str">
-        <f aca="false">VLOOKUP(D180,D$6:F$41,3,0)</f>
+        <f aca="false">VLOOKUP(D180,D$2:F$37,3,0)</f>
         <v>外</v>
       </c>
       <c r="G180" s="3"/>
@@ -8068,23 +7883,23 @@
     </row>
     <row r="181" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F181" s="1" t="str">
-        <f aca="false">VLOOKUP(D181,D$6:F$41,3,0)</f>
-        <v>中</v>
+        <f aca="false">VLOOKUP(D181,D$2:F$37,3,0)</f>
+        <v>外</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -8108,174 +7923,6 @@
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
     </row>
-    <row r="182" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B182" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="C182" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F182" s="1" t="str">
-        <f aca="false">VLOOKUP(D182,D$6:F$41,3,0)</f>
-        <v>中</v>
-      </c>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3"/>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
-      <c r="P182" s="3"/>
-      <c r="Q182" s="3"/>
-      <c r="R182" s="3"/>
-      <c r="S182" s="3"/>
-      <c r="T182" s="3"/>
-      <c r="U182" s="3"/>
-      <c r="V182" s="3"/>
-      <c r="W182" s="3"/>
-      <c r="X182" s="3"/>
-      <c r="Y182" s="3"/>
-      <c r="Z182" s="3"/>
-      <c r="AA182" s="3"/>
-    </row>
-    <row r="183" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B183" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="C183" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F183" s="1" t="str">
-        <f aca="false">VLOOKUP(D183,D$6:F$41,3,0)</f>
-        <v>外</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3"/>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
-      <c r="Q183" s="3"/>
-      <c r="R183" s="3"/>
-      <c r="S183" s="3"/>
-      <c r="T183" s="3"/>
-      <c r="U183" s="3"/>
-      <c r="V183" s="3"/>
-      <c r="W183" s="3"/>
-      <c r="X183" s="3"/>
-      <c r="Y183" s="3"/>
-      <c r="Z183" s="3"/>
-      <c r="AA183" s="3"/>
-    </row>
-    <row r="184" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B184" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="C184" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F184" s="1" t="str">
-        <f aca="false">VLOOKUP(D184,D$6:F$41,3,0)</f>
-        <v>外</v>
-      </c>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3"/>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
-      <c r="P184" s="3"/>
-      <c r="Q184" s="3"/>
-      <c r="R184" s="3"/>
-      <c r="S184" s="3"/>
-      <c r="T184" s="3"/>
-      <c r="U184" s="3"/>
-      <c r="V184" s="3"/>
-      <c r="W184" s="3"/>
-      <c r="X184" s="3"/>
-      <c r="Y184" s="3"/>
-      <c r="Z184" s="3"/>
-      <c r="AA184" s="3"/>
-    </row>
-    <row r="185" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B185" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="C185" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F185" s="1" t="str">
-        <f aca="false">VLOOKUP(D185,D$6:F$41,3,0)</f>
-        <v>外</v>
-      </c>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3"/>
-      <c r="M185" s="3"/>
-      <c r="N185" s="3"/>
-      <c r="O185" s="3"/>
-      <c r="P185" s="3"/>
-      <c r="Q185" s="3"/>
-      <c r="R185" s="3"/>
-      <c r="S185" s="3"/>
-      <c r="T185" s="3"/>
-      <c r="U185" s="3"/>
-      <c r="V185" s="3"/>
-      <c r="W185" s="3"/>
-      <c r="X185" s="3"/>
-      <c r="Y185" s="3"/>
-      <c r="Z185" s="3"/>
-      <c r="AA185" s="3"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
